--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_beg.xlsx
@@ -732,7 +732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Big Bob"]   We’d be able to travel to Columbia, far, far away. There, the Infected can form communities and even own land.
+    <t xml:space="preserve">[name="Big Bob"]   We'd be able to travel to Columbia, far, far away. There, the Infected can form communities and even own land.
 </t>
   </si>
   <si>
